--- a/Data/HSCEI.xlsx
+++ b/Data/HSCEI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="1908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="1909">
   <si>
     <t>ticker</t>
   </si>
@@ -5738,6 +5738,9 @@
   </si>
   <si>
     <t>2016-08-12</t>
+  </si>
+  <si>
+    <t>2016-08-15</t>
   </si>
 </sst>
 </file>
@@ -6095,7 +6098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1902"/>
+  <dimension ref="A1:G1903"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37154,6 +37157,29 @@
         <v>9554.85</v>
       </c>
     </row>
+    <row r="1903" spans="1:7">
+      <c r="A1903" s="1">
+        <v>1901</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D1903">
+        <v>9555.19</v>
+      </c>
+      <c r="E1903">
+        <v>9555.19</v>
+      </c>
+      <c r="F1903">
+        <v>9748.99</v>
+      </c>
+      <c r="G1903">
+        <v>9708.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/HSCEI.xlsx
+++ b/Data/HSCEI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="1909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1910">
   <si>
     <t>ticker</t>
   </si>
@@ -5741,6 +5741,9 @@
   </si>
   <si>
     <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>2016-08-16</t>
   </si>
 </sst>
 </file>
@@ -6098,7 +6101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1903"/>
+  <dimension ref="A1:G1904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37180,6 +37183,29 @@
         <v>9708.89</v>
       </c>
     </row>
+    <row r="1904" spans="1:7">
+      <c r="A1904" s="1">
+        <v>1902</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1904">
+        <v>9751.72</v>
+      </c>
+      <c r="E1904">
+        <v>9677.04</v>
+      </c>
+      <c r="F1904">
+        <v>9811.98</v>
+      </c>
+      <c r="G1904">
+        <v>9707.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/HSCEI.xlsx
+++ b/Data/HSCEI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="1911">
   <si>
     <t>ticker</t>
   </si>
@@ -5744,6 +5744,9 @@
   </si>
   <si>
     <t>2016-08-16</t>
+  </si>
+  <si>
+    <t>2016-08-17</t>
   </si>
 </sst>
 </file>
@@ -6101,7 +6104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1904"/>
+  <dimension ref="A1:G1905"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37206,6 +37209,29 @@
         <v>9707.99</v>
       </c>
     </row>
+    <row r="1905" spans="1:7">
+      <c r="A1905" s="1">
+        <v>1903</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D1905">
+        <v>9734.01</v>
+      </c>
+      <c r="E1905">
+        <v>9635.52</v>
+      </c>
+      <c r="F1905">
+        <v>9734.01</v>
+      </c>
+      <c r="G1905">
+        <v>9641.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
